--- a/Test Case saucedemo.com.xlsx
+++ b/Test Case saucedemo.com.xlsx
@@ -172,7 +172,7 @@
   <si>
     <t>Given Open sauce demo web app
 And Input username "&lt;username&gt;"
-And And Input password "&lt;password&gt;"
+And Input password "&lt;password&gt;"
 When User click login button
 Then Successfully login
 And Navigate to homepage
@@ -186,7 +186,7 @@
   <si>
     <t>Given Open sauce demo web app
 And Input username "&lt;username&gt;"
-And And Input password "&lt;password&gt;"
+And Input password "&lt;password&gt;"
 When User click login button
 Then Should failed login
 And Showing error message "Username and password do not match 
